--- a/DataTables/Datas/test/test_null_datas/test_null.xlsx
+++ b/DataTables/Datas/test/test_null_datas/test_null.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\DataTables\Datas\test\test_null_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5CAEFA-13DE-41F7-BEBD-9DF817E4D677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0070B70A-85D5-47BB-884F-DD503C52310A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44460" yWindow="2910" windowWidth="36690" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>##</t>
   </si>
@@ -67,6 +67,10 @@
       </rPr>
       <t>/apple</t>
     </r>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,7 +445,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
